--- a/Tips.xlsx
+++ b/Tips.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aamirsangey/Documents/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Project\Mind-Check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2279A68-C2F9-7E40-8222-AC49E89AE9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" xr2:uid="{137296EA-ACB9-8942-9FB5-76A94A2428A1}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,9 +46,6 @@
     <t>Depression</t>
   </si>
   <si>
-    <t xml:space="preserve">Scuidal </t>
-  </si>
-  <si>
     <t>Personality Disorder</t>
   </si>
   <si>
@@ -217,12 +213,15 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>Suicidal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -608,79 +607,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB2B9FD-8321-5C40-8990-297A67B30EB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="131" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.399999999999999">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.399999999999999">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.399999999999999">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.399999999999999">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.399999999999999">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -688,55 +689,55 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.399999999999999">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.399999999999999">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.399999999999999">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.399999999999999">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.6">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.399999999999999">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Tips.xlsx
+++ b/Tips.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Project\Mind-Check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aamirsangey/Documents/Hackathon2024/Mind-Check/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58DE84E-16BC-794E-A750-06A98E135B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21396"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -62,21 +52,6 @@
   </si>
   <si>
     <r>
-      <t>Maintain a Routine:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Stick to a regular daily schedule with consistent sleep, meals, and leisure activities.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Engage in Enjoyable Activities:</t>
     </r>
     <r>
@@ -216,24 +191,19 @@
   </si>
   <si>
     <t>Suicidal</t>
+  </si>
+  <si>
+    <t>Maintain a Routine: Stick to a regular daily schedule with consistent sleep, meals, and leisure activities.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -271,9 +241,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,28 +578,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="131" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -636,108 +607,108 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.399999999999999">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.399999999999999">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.399999999999999">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.399999999999999">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.399999999999999">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.399999999999999">
+    <row r="10" spans="1:2" ht="18">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.399999999999999">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.399999999999999">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.399999999999999">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.399999999999999">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Tips.xlsx
+++ b/Tips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aamirsangey/Documents/Hackathon2024/Mind-Check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58DE84E-16BC-794E-A750-06A98E135B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2EE334-3325-AB45-85CE-53FCA730451C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Anxiety</t>
   </si>
@@ -194,6 +194,27 @@
   </si>
   <si>
     <t>Maintain a Routine: Stick to a regular daily schedule with consistent sleep, meals, and leisure activities.</t>
+  </si>
+  <si>
+    <t>Keep a thought diary where you note down anxious thoughts and then challenge them with evidence-based, balanced responses. This exercise can help shift negative thought patterns.</t>
+  </si>
+  <si>
+    <t>start a daily gratitude journal where you write down three things you appreciate each day. This helps focus on positive aspects of your life.</t>
+  </si>
+  <si>
+    <t>Break your day into small tasks or goals. Completing even minor tasks can give you a sense of accomplishment and help build momentum.</t>
+  </si>
+  <si>
+    <t>Consider temporarily reducing access to items or situations that might worsen your crisis—this could involve asking a trusted person to help create a safer environment during difficult times.</t>
+  </si>
+  <si>
+    <t>Schedule regular breaks from screens and social media. Use this time to engage in offline activities such as reading a book, walking outside, or practicing a hobby.</t>
+  </si>
+  <si>
+    <t>Work with your therapist to design personalized action plans for both high (manic) and low (depressive) phases, including strategies for self-care, medication management, and social support.</t>
+  </si>
+  <si>
+    <t>Consider art therapy, music therapy, or dance/movement therapy as alternative approaches to traditional talk therapy. These creative outlets can help you process emotions and express yourself.</t>
   </si>
 </sst>
 </file>
@@ -241,10 +262,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,16 +599,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="131" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="154.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -659,7 +679,7 @@
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -709,6 +729,62 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
